--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\09-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062839C7-C2F2-416C-A2BF-F5350B504B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C9E63-CAAC-4357-AC0D-B27B969B0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>VRSTA</t>
   </si>
@@ -316,6 +316,71 @@
   </si>
   <si>
     <t>16:00 – 17:55</t>
+  </si>
+  <si>
+    <t>Abstract The Angels Initiative is the international project focused to improve stroke
+care worldwide, bringing the main mission: “Giving Life a Chance.” Operating in over
+100 countries, Angels Initiative is dedicated to ensuring that every stroke patient, re-
+gardless of location, receives the fastest and highest-quality treatment possible. A key
+part of this effort is the “100 Angels Regions” project—creating the regions where
+Emergency Medical Services (EMS) and hospitals which treat stroke work in perfect
+coordination to optimize stroke care from the first emergency call to hospital treatment.
+EMS professionals are at the heart of this transformation, ensuring fast stroke recogni-
+tion, pre-notification, and rapid transport to specialized centers.
+THE ROLE OF EMS IN SAVING LIVES
+Every second counts in stroke care—faster treatment means better survival and re-
+covery. EMS professionals play a critical role by:
+Recognizing stroke early and ensuring rapid transport.
+Using pre-notification to activate hospital stroke teams in advance.
+Applying best practices and protocols to shorten time to treatment.
+To support EMS professionals, the Angels Initiative has various resources such as
+checklists, training videos, presentations, and interactive online modules.
+EMS ANGELS AWARDS: RECOGNIZING EXCELLENCE
+The EMS Angels Awards honor teams that:
+Demonstrate outstanding stroke recognition and response.
+Ensure seamless hospital handover and rapid treatment initiation.
+Commit to continuous improvement in pre-hospital stroke care.
+GIVING LIFE A CHANCE. JOIN THE MISSION.
+Angels Initiative aims to create regions where stroke patients receive timely and effective
+care, ultimately making the world safer for those at risk of stroke. By improving EMS respon-
+se times and hospital coordination, the Angels Initiative is helping to reduce treatment delays
+and increase survival rates worldwide. Be part of a global movement that saves lives.
+Keywords Stroke care, EMS, Angels Initiative, 100 Angels Regions, EMS Angels
+Awards, pre-hospital stroke management.</t>
+  </si>
+  <si>
+    <t>Sažetak Bit Objedinjenog hitnog bolničkog prijema i specijalista hitne medicine je da u
+kratkom vremenu prepozna, stabilizira i zbrine hitnog pacijenta na jednom mjestu. Zbri-
+njavanje pacijenata s akutnim moždanim udarom koji imaju indikaciju za trombolizu su
+jako dobar primjer za to. Ovom prezentacijom želim prikazati što se sve promijenilo ili nije
+promijenilo u našem poslu prilikom zbrinjavanja pacijenta s akutnim moždanim udarom.
+Prva dva pacijenta prikazuju zbrinjavanje pacijenata prije Angels Initiative projekta, što
+uključuje: pregled pacijenata prema trijažnim kategorijama, ordiniranje nalaza i potrebne
+terapije, zatim dogovaranje CT - a i nakon prispijeća svih nalaza konzultacija neurologa
+koji dolazi u hitni odjel i nakon pregleda indicira prijem na odjel neurologije. U prosjeku
+zbrinjavanje pacijenata na takav način traje oko sat i pol prije prijema na odjel. Sljedeća
+tri pacijenta prikazuju zbrinjavanje pacijenata nakon uključenja OHBP - u u Angels Initia-
+tive projekt. Što se promijenilo? Svi pacijenti s akutnim moždanim udarom trijažiraju se u
+trijažnu kategoriju II. Medicinska sestra odmah obavještava liječnika o pacijentu. Liječnik
+odmah ili što prije nastoji pregledati pacijenta i ako pacijent ima indikaciju za trombolizu
+kreće aktivacija takozvanog Stroke Code, što znači da liječnik u OHBP-u odmah nakon
+pregleda organizira CT mozga i angiografiju, nakon toga obavještava neurologa da dođe
+na CT i nakon snimanja pacijent u pratnji neurologa odmah ide na prijem na neurologiju.
+Druga promjena je prenotifikacija od strane prehospitalne. Što znači da liječnik Tima I
+obavještava neurologa o pacijentu, neurolog zatim obavještava liječnika u OHBP-u koji
+odmah organizira CT i čeka pacijenta na ulazu u odjel. Nakon pregleda pacijenta u OHBP
+- u od strane liječnika OHBP - a ako za to ima indikacije aktivira se Stroke Code i dalje
+je postupak isti. Takvim pristupom pacijentu značajno je smanjeno vrijeme obrade s pri-
+jašnjih sat i pol na sadašnjih u prosjeku 20 - 30 min. do odlaska pacijenta na odjel neu-
+rologije i primjene trombolize. Plan za još poboljšanja u zbrinjavanju pacijenata s akutnim
+moždanim udarom je nabavka potrebne opreme za primjenu trombolize na CT - u. Za to
+je potreban strečer s vagom. U tom slučaju trombolizu se može primijeniti već nakon 15 -
+20 min. što pacijentima značajno poboljšava izglede za oporavak. OHBP OB Koprivnica
+je dobio i potvrdu od Angels Initiative u obliku Platinum Award.
+Odgovor na pitanje: Možemo li bolje? Da, naravno, uvijek se može bolje, ako ima
+dovoljno volje, truda, upornosti i tvrdoglavosti. Ako možemo mi, zašto ne bi mogli i vi.
+Ključne riječi akutni moždani udar, tromboliza, Stroke Code, Angels Initiative proje-
+ct, Platinum Award</t>
   </si>
 </sst>
 </file>
@@ -797,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
@@ -919,7 +984,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="370.5" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -940,9 +1005,11 @@
       <c r="J5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="60.75" thickBot="1">
+      <c r="K5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409.6" thickBot="1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -963,7 +1030,9 @@
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="30.75" thickBot="1">
       <c r="A7" t="s">

--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C9E63-CAAC-4357-AC0D-B27B969B0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4A581-F34E-4517-A104-D0292D241587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
   <si>
     <t>VRSTA</t>
   </si>
@@ -318,76 +318,70 @@
     <t>16:00 – 17:55</t>
   </si>
   <si>
-    <t>Abstract The Angels Initiative is the international project focused to improve stroke
-care worldwide, bringing the main mission: “Giving Life a Chance.” Operating in over
-100 countries, Angels Initiative is dedicated to ensuring that every stroke patient, re-
-gardless of location, receives the fastest and highest-quality treatment possible. A key
-part of this effort is the “100 Angels Regions” project—creating the regions where
-Emergency Medical Services (EMS) and hospitals which treat stroke work in perfect
-coordination to optimize stroke care from the first emergency call to hospital treatment.
-EMS professionals are at the heart of this transformation, ensuring fast stroke recogni-
-tion, pre-notification, and rapid transport to specialized centers.
-THE ROLE OF EMS IN SAVING LIVES
-Every second counts in stroke care—faster treatment means better survival and re-
-covery. EMS professionals play a critical role by:
-Recognizing stroke early and ensuring rapid transport.
-Using pre-notification to activate hospital stroke teams in advance.
-Applying best practices and protocols to shorten time to treatment.
-To support EMS professionals, the Angels Initiative has various resources such as
-checklists, training videos, presentations, and interactive online modules.
-EMS ANGELS AWARDS: RECOGNIZING EXCELLENCE
-The EMS Angels Awards honor teams that:
-Demonstrate outstanding stroke recognition and response.
-Ensure seamless hospital handover and rapid treatment initiation.
-Commit to continuous improvement in pre-hospital stroke care.
-GIVING LIFE A CHANCE. JOIN THE MISSION.
-Angels Initiative aims to create regions where stroke patients receive timely and effective
-care, ultimately making the world safer for those at risk of stroke. By improving EMS respon-
-se times and hospital coordination, the Angels Initiative is helping to reduce treatment delays
-and increase survival rates worldwide. Be part of a global movement that saves lives.
-Keywords Stroke care, EMS, Angels Initiative, 100 Angels Regions, EMS Angels
-Awards, pre-hospital stroke management.</t>
-  </si>
-  <si>
-    <t>Sažetak Bit Objedinjenog hitnog bolničkog prijema i specijalista hitne medicine je da u
-kratkom vremenu prepozna, stabilizira i zbrine hitnog pacijenta na jednom mjestu. Zbri-
-njavanje pacijenata s akutnim moždanim udarom koji imaju indikaciju za trombolizu su
-jako dobar primjer za to. Ovom prezentacijom želim prikazati što se sve promijenilo ili nije
-promijenilo u našem poslu prilikom zbrinjavanja pacijenta s akutnim moždanim udarom.
-Prva dva pacijenta prikazuju zbrinjavanje pacijenata prije Angels Initiative projekta, što
-uključuje: pregled pacijenata prema trijažnim kategorijama, ordiniranje nalaza i potrebne
-terapije, zatim dogovaranje CT - a i nakon prispijeća svih nalaza konzultacija neurologa
-koji dolazi u hitni odjel i nakon pregleda indicira prijem na odjel neurologije. U prosjeku
-zbrinjavanje pacijenata na takav način traje oko sat i pol prije prijema na odjel. Sljedeća
-tri pacijenta prikazuju zbrinjavanje pacijenata nakon uključenja OHBP - u u Angels Initia-
-tive projekt. Što se promijenilo? Svi pacijenti s akutnim moždanim udarom trijažiraju se u
-trijažnu kategoriju II. Medicinska sestra odmah obavještava liječnika o pacijentu. Liječnik
-odmah ili što prije nastoji pregledati pacijenta i ako pacijent ima indikaciju za trombolizu
-kreće aktivacija takozvanog Stroke Code, što znači da liječnik u OHBP-u odmah nakon
-pregleda organizira CT mozga i angiografiju, nakon toga obavještava neurologa da dođe
-na CT i nakon snimanja pacijent u pratnji neurologa odmah ide na prijem na neurologiju.
-Druga promjena je prenotifikacija od strane prehospitalne. Što znači da liječnik Tima I
-obavještava neurologa o pacijentu, neurolog zatim obavještava liječnika u OHBP-u koji
-odmah organizira CT i čeka pacijenta na ulazu u odjel. Nakon pregleda pacijenta u OHBP
-- u od strane liječnika OHBP - a ako za to ima indikacije aktivira se Stroke Code i dalje
-je postupak isti. Takvim pristupom pacijentu značajno je smanjeno vrijeme obrade s pri-
-jašnjih sat i pol na sadašnjih u prosjeku 20 - 30 min. do odlaska pacijenta na odjel neu-
-rologije i primjene trombolize. Plan za još poboljšanja u zbrinjavanju pacijenata s akutnim
-moždanim udarom je nabavka potrebne opreme za primjenu trombolize na CT - u. Za to
-je potreban strečer s vagom. U tom slučaju trombolizu se može primijeniti već nakon 15 -
-20 min. što pacijentima značajno poboljšava izglede za oporavak. OHBP OB Koprivnica
-je dobio i potvrdu od Angels Initiative u obliku Platinum Award.
-Odgovor na pitanje: Možemo li bolje? Da, naravno, uvijek se može bolje, ako ima
-dovoljno volje, truda, upornosti i tvrdoglavosti. Ako možemo mi, zašto ne bi mogli i vi.
-Ključne riječi akutni moždani udar, tromboliza, Stroke Code, Angels Initiative proje-
-ct, Platinum Award</t>
+    <t xml:space="preserve">Abstract The Angels Initiative is the international project focused to improve stroke care worldwide, bringing the main mission: “Giving Life a Chance.” Operating in over 100 countries, Angels Initiative is dedicated to ensuring that every stroke patient, regardless of location, receives the fastest and highest-quality treatment possible. A key part of this effort is the “100 Angels Regions” project—creating the regions where Emergency Medical Services (EMS) and hospitals which treat stroke work in perfect coordination to optimize stroke care from the first emergency call to hospital treatment. EMS professionals are at the heart of this transformation, ensuring fast stroke recognition, pre-notification, and rapid transport to specialized centers.  
+THE ROLE OF EMS IN SAVING LIVES 
+Every second counts in stroke care—faster treatment means better survival and recovery. EMS professionals play a critical role by:  
+Recognizing stroke early and ensuring rapid transport.  
+Using pre-notification to activate hospital stroke teams in advance.  
+Applying best practices and protocols to shorten time to treatment.  
+To support EMS professionals, the Angels Initiative has various resources such as checklists, training videos, presentations, and interactive online modules.
+EMS ANGELS AWARDS: RECOGNIZING EXCELLENCE 
+The EMS Angels Awards honor teams that:  
+Demonstrate outstanding stroke recognition and response.  
+Ensure seamless hospital handover and rapid treatment initiation. Commit to continuous improvement in pre-hospital stroke care.  
+GIVING LIFE A CHANCE. JOIN THE MISSION. 
+Angels Initiative aims to create regions where stroke patients receive timely and effective care, ultimately making the world safer for those at risk of stroke. By improving EMS response times and hospital coordination, the Angels Initiative is helping to reduce treatment delays and increase survival rates worldwide.  Be part of a global movement that saves lives. 
+Keywords Stroke care, EMS, Angels Initiative, 100 Angels Regions, EMS Angels Awards, pre-hospital stroke management.  </t>
+  </si>
+  <si>
+    <t>Sažetak Bit Objedinjenog hitnog bolničkog prijema i specijalista hitne medicine je da u kratkom vremenu prepozna, stabilizira i zbrine hitnog pacijenta na jednom mjestu. Zbrinjavanje pacijenata s akutnim moždanim udarom koji imaju indikaciju za trombolizu su jako dobar primjer za to. Ovom prezentacijom želim prikazati što se sve promijenilo ili nije promijenilo u našem poslu prilikom zbrinjavanja pacijenta s akutnim moždanim udarom. Prva dva pacijenta prikazuju zbrinjavanje pacijenata prije Angels Initiative projekta, što uključuje: pregled pacijenata prema trijažnim kategorijama, ordiniranje nalaza i potrebne terapije, zatim dogovaranje CT - a i nakon prispijeća svih nalaza konzultacija neurologa koji dolazi u hitni odjel i nakon pregleda indicira prijem na odjel neurologije. U prosjeku zbrinjavanje pacijenata na takav način traje oko sat i pol prije prijema na odjel. Sljedeća tri pacijenta prikazuju zbrinjavanje pacijenata nakon uključenja OHBP - u u Angels Initiative projekt. Što se promijenilo? Svi pacijenti s akutnim moždanim udarom trijažiraju se u trijažnu kategoriju II. Medicinska sestra odmah obavještava liječnika o pacijentu. Liječnik odmah ili što prije nastoji pregledati pacijenta i ako pacijent ima indikaciju za trombolizu kreće aktivacija takozvanog Stroke Code, što znači da liječnik u OHBP-u odmah nakon pregleda organizira CT mozga i angiografiju, nakon toga obavještava neurologa da dođe na CT i nakon snimanja pacijent u pratnji neurologa odmah ide na prijem na neurologiju. Druga promjena je prenotifikacija od strane prehospitalne. Što znači da liječnik Tima I obavještava neurologa o pacijentu, neurolog zatim obavještava liječnika u OHBP-u koji odmah organizira CT i čeka pacijenta na ulazu u odjel. Nakon pregleda pacijenta u OHBP - u od strane liječnika OHBP - a ako za to ima indikacije aktivira se Stroke Code i dalje je postupak isti. Takvim pristupom pacijentu značajno je smanjeno vrijeme obrade s prijašnjih sat i pol na sadašnjih u prosjeku 20 - 30 min. do odlaska pacijenta na odjel neurologije i primjene trombolize. Plan za još poboljšanja u zbrinjavanju pacijenata s akutnim moždanim udarom je nabavka potrebne opreme za primjenu trombolize na CT - u. Za to je potreban strečer s vagom. U tom slučaju trombolizu se može primijeniti već nakon 15 - 20 min. što pacijentima značajno poboljšava izglede za oporavak. OHBP OB Koprivnica je dobio i  potvrdu od Angels Initiative u obliku Platinum Award. 
+Odgovor na pitanje: Možemo li bolje? Da, naravno, uvijek se može bolje, ako ima dovoljno volje, truda, upornosti i tvrdoglavosti. Ako možemo mi, zašto ne bi mogli i vi.
+Ključne riječi akutni moždani udar, tromboliza, Stroke Code, Angels Initiative project, Platinum Award</t>
+  </si>
+  <si>
+    <t>Sažetak Moždani udar najčešći je uzrok invalidnosti opće populacije starije iznad 65 godina te drugi po učestalosti sveukupne smrtnosti globalno. Posljedično, zdravstvene i socioekonomske tegobe nastale nakon moždanog udara su od velike težine za samog oboljelog, njegovatelje ali i cijelu zajednicu. Europska organizacija za liječenje moždanog udara (European stroke organisation, ESO) 2018. godine pokrenula je akcijski plan koji se planira provesti do kraja 2030. godine. Glavni ciljevi su redukcija pojavnosti moždanog udara za 10%, liječenje više od 90% pacijenata u tzv. „jedinicama za liječenje moždanog udara“, zatim postavljanja cijelog lanca sustavnog liječenja sa adekvatnom rehabilitacijom te ponovnom osposobljavanje oboljelog u društveni sustav, i završno, šire društveno osvješćivanje i edukacije opće populacije. Liječenje u „jedinicama za liječenje moždanog“ udara predstavlja temelj sustavnog liječenja i njege za pacijente sa moždanim udarom, a zasniva se na postavkom standardiziranih protokola rada sestara i liječnika. U navedenim jedinicama provodi se i tzv. „reperfuzijska terapija“ sa ciljem ponovne uspostave normalnog moždanog protoka, a u koju spada aplikacija intravenske trombolitičke terapije i endovaskularno liječenje koja u posljednjih godina omogućuje promjenu paradigme liječenja i ciljeva liječenje moždanog udara. Angels projekt u sklopu ESO-a u radu je od 2018. godine i temelji se na promicanju standardizacije sa krajnjim ciljem postavljanjem internacionalno verificiranih jedinica za liječenje moždanog a time i promicanju ravnopravne i standardizirane skrbi u pacijenta sa akutnim moždanim udarom. Odjel Neurologije OB „dr.Tomislav Bardek“ Koprivnica sudjeluje u Angels projektu od 2020. godine inicijalno pod mentorstvom doc. Hrvoje Budinčevića, a kasnije uz asistenciju predstavnice Angels projekta za Hrvatsku Marije Shevredinove. Optimizacija liječenja moždanog udara obuhvatila je: uvođenje prenotifikacijskih obrazaca za hitnu medicinu, optimizaciju rada u hitnom odjelu s algoritmima i edukacijom osoblja te protokolizaciju liječenja na Odjelu neurologije s ciljem što brže aplikacije reperfuzijske terapije, ali i postavljanjem standarda za postakutno liječenje i daljnju dijagnostiku i njegu. Odjel neurologije od svojeg sudjelovanja u projektu ostvario je signifikantna poboljšanja u radu te zadobio platinastu nagradu za rezultate u tzv. „RES-Q“ registru. Liječenje moždanog udara unazad posljednjih nekoliko godina u bitnim je promjena, a temelji se na postavku interdisciplinarne i standardizirane suradnje liječnika i medicinskih sestara, a sve u svrhu poboljšanja kvalitete života oboljelih. 
+Ključne riječi Moždani udar; Jedinice liječenja moždanog udara; Reperfuzijska terapija; Tromboliza; Trombektomija</t>
+  </si>
+  <si>
+    <t>Sažetak Moždani udar je hitno medicinsko stanje koje zahtijeva pravovremeno prepoznavanje i brzo djelovanje kako bi se osigurao optimalan ishod za pacijenta. U medicinskoj prijavno-dojavnoj jedinici (MPDJ), dispečeri provode trijažu prema Hrvatskom indeksu prijema hitnog medicinskog poziva na temelju razgovora s pozivateljem, što predstavlja izazov zbog varijabilnosti simptoma, načina na koji pozivatelji opisuju stanje pacijenta te tumačenja istih. Ovo istraživanje analizira odabir trijažnih kartica i kriterija povezanih s pozivima koji su na kraju rezultirali radnom dijagnozom moždanog udara prema MKB klasifikaciji (G45-G45.9, I60-I69.9). Retrospektivna analiza obuhvatila je pozive zaprimljene tijekom 2023. godine, s posebnim fokusom na kriterije trijaže A.18.01 – A.18.07 i A.25.01 – A.25.09, simptome prijavljene tijekom razgovora s pozivateljem i njihov utjecaj na odabir trijažnih kartica. Uz to, istraživanje obuhvaća analizu podataka po spolu i dobnim skupinama. Cilj je bio utvrditi obrasce odabira kartica i kriterija te identificirati ključne simptome koji mogu dispečerima olakšati razlikovanje moždanog udara od drugih hitnih stanja. Rezultati analize ukazali su na kartice najčešće korištene za pacijente kojima je kasnije postavljena radna dijagnoza moždanog udara te na simptome koji su bili zanemareni ili pogrešno interpretirani. Na temelju tih rezultata naglašava se potreba za dodatnom edukacijom dispečera o varijabilnostima simptomatologije moždanog udara te različitostima u načinu prezentacije simptoma. Istodobno, rezultati ukazuju i na nužnost podizanja svijesti među populacijom o prepoznavanju ranih znakova moždanog udara te važnosti jasnoće u opisivanju simptoma tijekom hitnih poziva. Zaključci ovog istraživanja mogu poslužiti kao temelj za unapređenje edukacije i prevencije s ciljem pravovremenog prepoznavanja i zbrinjavanja moždanog udara.
+Ključne riječi moždani udar, trijaža, medicinska prijavno-dojavna jedinica, edukacija, populacija</t>
+  </si>
+  <si>
+    <t>Sažetak Moždani udar, cerebrovaskularni inzult (CVI), nastaje zbog prekida dotoka krvi u mozak. Bez odgovarajuće količine krvi, mozak ne može dobiti dovoljno kisika i hranjivih tvari, što uzrokuje odumiranje moždanih stanica. Moždani udar može imati trajne posljedice, uključujući paralizu, poteškoće u govoru, te druge ozbiljne simptome. Simptomi moždanog udara često se javljaju iznenada i mogu uključivati iznenadnu slabost ili utrnulost lica, ruke ili noge, obično na jednoj strani tijela, probleme s govorom i razumijevanjem, zamagljen ili dvostruki vid, te iznenadnu jaku glavobolju bez jasnog uzroka. Važno je brzo prepoznati simptome i odmah potražiti medicinsku pomoć jer je pravovremena intervencija ključna za smanjenje oštećenja mozga i poboljšanje ishoda za pacijenta. Trijaža u Objedinjenim hitnim bolničkim odjelima (OHBP) ima ulogu u prepoznavanju i hitnom zbrinjavanju pacijenata s moždanim udarom. Prepoznavanje ranih znakova moždanog udara u fazi trijaže omogućuje bržu dijagnozu i početak odgovarajućeg liječenja, što značajno utječe na ishod pacijenata. Trijažna procjena jednaka je za sve pacijente u OHBP-u ali je odgovornost na trijažnoj sestri da razvrsta pacijente u 5 trijažnih kategorija kojima je definirano sigurno vrijeme čekanja do početka pregleda liječnika. Trijažna sestra predstavlja važnu kariku u lancu brige o pacijentima s moždanim udarom, osiguravajući brzu i učinkovitu trijažu.
+Ključne riječi trijaža, moždani udar, Objedinjeni hitni bolnički prijem</t>
+  </si>
+  <si>
+    <t>Sažetak FAST je jednostavan, lako pamtljiv i lako izvediv orijentacijski neurološki pregled. Zdravstvenim profesionalcima FAST može koristiti za brzu neurološku procjenu da li se radi o ozbiljnom neurološkom pacijentu ili ne. Prvenstveno se može koristiti na terenu za brzu procjenu pacijenta i ako postoje određeni simptomi koji bi mogli upućivati na neurološko zbivanje može se nastaviti s detaljnijim neurološkim pregledom kao što je brzi NIHSS Stroke Assessment. S druge strane FAST je iznimno koristan i u bolničkim uvjetima prvenstveno prilikom trijažiranja pacijenata gdje medicinska sestra u procesu trijaže može na vrlo jednostavan i brz način procijeniti pacijenta te na vrijeme reagirati i obavijestiti liječnika o pacijentu. Sama kratica FAST odnosno hrvatska inačica GROM (govor, ruka, oduzetost, minute) označava da li postoji asimetrija lica: F - face, da li osoba može podignuti obje ruke u zrak: A - arm, da li osoba pravilno govori: S - speech, odmah pozvati hitnu, odmah reagirati da se ne gubi vrijeme: T - time. FAST se može vrlo jednostavno izvesti uz primjenu tri kratke naredbe: Nasmijete se. Podignite ruke u zrak. Recite nešto, na primjer - kako se zovete, koji je dan, koliko imate godina, da li vas nešto boli. I obavezno pitati za vrijeme nastanka tegoba. NIHSS Stroke Assessment je detaljniji neurološki pregled namijenjen prvenstveno zdravstvenim profesionalcima za objektivno kvantificiranje oštećenja uzrokovanog moždanim udarom. Cilj predavanja je prikazati kako na jednostavan i brz način pravilno izvesti neurološki pregled odnosno NIHSS Stroke Assessment pregled u hitnoj službi i kako pravilno bodovati neurološke ispade. Pravilno bodovanje neuroloških ispada i interpretacija dobivenih rezultata važno je zbog toga jer se na temelju zbroja dobivenih bodova određuje da li pacijent ima indikaciju za primjenu trombolize ili ne. Ako je zbroj bodova u brzom neurološkom pregledu - NIHSS Stroke Assessment između 4 - 24 pacijent ima indikaciju za trombolizu uz uvjet da su svi drugi faktori zadovoljeni. Niži zbroj označava minor stroke i nije indikacija za trombolizu zbog minimalnog deficita - izuzev specifičnih ispada kao što su na primjer samo slabost dominantne ruke ili ispadi u vidnom polju. U takvim situacijama procjena za primjenu trombolize je uvijek individualna. Zbroj bodova viši od 24 označava teški moždani udar i takvi pacijenti nemaju indikaciju za trombolizu. Brzi neurološki pregled odnosno NIHSS Stroke Assessment sastoji se od 11 dijelova koji se zasebno moraju ispitati, a zbroj svih dijelova daje konačni NIHSS rezultat. Dijelovi koji se ispituju obuhvaćaju: Stanje svijesti, što obuhvaća: razinu svijesti, orijentaciju i izvršavanje naredbi, zatim, bulbomotoriku, vidno polje, pokreti lica - mimiku, održavanje ruku u antigravitacijskom položaju, održavanje nogu u antigravitacijskom položaju, ataksija ekstremiteta, osjet, govor, dizartrija i ekstinkcija/nepažnja odnosno zanemarivanje pojedine strane tijela. Minimalni zbroj koji se može dobiti je 0 što označava da nema neuroloških ispada, a maksimalni zbroj bodova koji je moguć je 42. Prilikom ispitivanja 0 označava da nema neuroloških ispada, a 1,2,3,4 označava sve veći stupanj neurološkog oštećenja. Brzi neurološki pregled u hitnoj službi treba napraviti kroz maksimalno 1 - 2 min. kod pacijenta s akutnim simptomima moždanog udara koji se javljaju u hitnu službu unutar 4.5 h od početka nastupa simptoma zbog što ranije primjene trombolize.
+Ključne riječi FAST, NIHSS Stroke Assessment,</t>
+  </si>
+  <si>
+    <t>Sažetak Akutni moždani udar predstavlja jednu od najčešćih hitnih intervencija u izvanbolničkoj hitnoj medicinskoj službi. Kod pacijenata s navedenim stanjem vrijeme je ključan faktor. Godine 2023. Zavod za hitnu medicinu Koprivničko- križevačke županije se pridružuje Angels projektu, kojem je cilj je pružiti njegu pacijentima s kliničkim znakovima moždanog udara na standardizirani način, kako bi se ubrzalo vrijeme od prvog pregleda pacijenta do konačnog zbrinjavanja i davanja adekvatne terapije za odabrane pacijente. U suradnji s odjelom neurologije i objedinjenim hitnim bolničkim odjelom Opće bolnice Koprivnica napravljen je protokol postupanja za pacijente s akutnim moždanim udarom. Glavni ciljevi jesu: smanjiti vrijeme potrošeno na pregled kod kuće, prethodna najava bolnici, ispuniti pripremljeni obrazac s najvažnijim informacijama o pacijentu. U sustavu e hitna analizirali smo i usporedili podatke intervencija za pacijente s akutnim moždanim zbivanjima do trenutka uvođenja protokola te uz novo uveden protokol obavještavanja. Uvođenjem i provedbom protokola smanjilo se vrijeme provedeno za pregled pacijenta u kući, smanjilo se vrijeme predaje poziva timu, smanjilo se vrijeme do dolaska na hitni bolnički odjel. Također smo analizirali koliki broj pacijenata s kliničkom slikom moždanog udara, od ukupno tromboliziranih bolesnika u OB Koprivnica, je zbrinut od strane HMP, a koliki je udio sam došao u OHBP , te našli kako je iznenađujuće veliki dio bolesnika dovezen od strane obitelji/prijatelja, a mimo ZZHM
+Uspoređivali smo radne dijagnoze, koju su postavili djelatnici ZZHM-a, s konačnim dijagnozama svih tromboliziranih bolesnika. Iznenađujuće velik dio dijagnoza nije bio vezan za moždane udare (prema MKB-u), odnosno naišli smo na vrlo raznolike kliničke prezentacije moždanog udara.
+Ključne riječi akutni moždani udar, Angels projekt, tromboliza, radne dijagnoze</t>
+  </si>
+  <si>
+    <t>Sažetak Uspostavom jednog od značajnijih projekata u zdravstvu u 2024.godini na području cijele Republike Hrvatske, Projekta hitne helikopterske medicinske službe (HHMS) u 4 baze, Zagreb, Split, Rijeka i Osijek, 30. ožujka 2024.godine započelo se s novim načinom osiguravanja kvalitetnije, brže i dostupnije hitne medicinske skrbi svim građanima i posjetiteljima na području Republike Hrvatske, a posebno na udaljenim i teško dostupnim područjima čime se poboljšava zdravstveni ishod za pacijenta. Baza Rijeka, kao jedna od četiri baze u RH, smještena je u Zračnoj luci Rijeka u Omišlju na otoku Krku, a pokriva područje Primorsko-goranske, Istarske, Ličko-senjske i sjevernog dijela Zadarske županije. Na području baze Rijeka od 30.3. do 30.6.2024. dnevne intervencije je obavljao HHMS dok su noćne intervencije obavljane u suradnji s MORH-om. Sve medicinske intervencije HHMS je preuzeo s 01.7.2024.godine. U Medicinskoj prijavno-dojavnoj jedinici Zavoda za hitnu medicinu Primorsko-goranske županije (ZZHM PGŽ) tijekom 2024. godine zaprimljeno je ukupno 76.455 poziva, a od ukupnog broja poziva 43,5 4 % poziva su na temelju kriterija sukladno Hrvatskom indeksu prijema hitnog medicinskog poziva zaprimljeni kao medicinske intervencije na terenu, njih ukupno 33.290, što je za 6,53 % više nego u 2023.g. Od ukupnog broja intervencija na terenu u Zavodu, helikopterskom hitnom medicinskom službom obavljeno je 430 intervencija na području svoga djelovanja ili 1,29 % svih intervencija u ZZHM PGŽ. Od 430 intervencija HHMS baze Rijeka u Primorsko-goranskoj županiji obavljena je 321 intervencija (74,65 %), na području Istarske županije 78 intervencija (18,14%), na području Ličko-sinjske županije 29 intervencija (6,74 %) te samo 2 intervencije (0,47 %) na području sjevernog dijela Zadarske županije. Najveći broj intervencija, prema mjesecima, obavljen je tijekom srpnja, kolovoza i rujna kada je turistička sezona bila na vrhuncu, što se poklopilo i s početkom noćnih intervencija HHMS-a. Od ukupnog broja obavljenih HHMS intervencija 34,19% su bile noćne intervencije. Najčešći uzroci intervencija HHMS timova su bile bolesti srca i krvožilnog sustava te komplikacijama koje te bolesti mogu uzrokovati, višestruke ozljede nastale u različitim vrstama nesreća, ali i brojna druga hitna medicinska stanja koja su zahtijevala žurnu reakciju kako bi se osigurao najbolji mogući ishod za pacijenta. HHMS je intervenirao na brojnim nekad nezamislivim lokacijama, što se posebno odnosi na male, udaljene, a ipak naseljene otoke tijekom cijele godine, bez osigurane zdravstvene skrbi na samom otoku. Podaci o broju intervencija na pojedinom područjima mogu nam poslužiti kao temelj za planiranje budućih aktivnosti i unaprjeđenje postojećeg sustava hitne medicinske službe, a svakako i na daljnje razvijanje hitne helikopterske medicinske službe na području RH.
+Ključne riječi ZHM PGŽ, HHMS, intervencije, baza Rijeka</t>
+  </si>
+  <si>
+    <t>Sažetak Adrenalin ima dugu povijest lijeka koji se koristi tijekom kardiopulmonalne reanimacije (KPR) i sastavni je dio svih međunarodnih smjernica koje se odnose liječenje srčanog zastoja, stanja koje predstavlja jedan od vodećih uzroka smrtnosti u svijetu. Njegovo primarno djelovanje temelji se na stimulaciji alfa-adrenergičkih receptora, čime povećava periferni vaskularni otpor i osigurava bolju koronarnu i cerebralnu perfuziju tijekom kompresija prsnog koša. Beta-adrenergički učinci adrenalina povećavaju srčanu frekvenciju i kontraktilnost, ali mogu dovesti do povećane potrošnje kisika u miokardu i pogoršanja postreanimacijskog sindroma.
+Objavljene studije pokazuju kako adrenalin povećava šansu za povratak spontane cirkulacije kao i preživljavanje do prijema i otpusta iz bolnice, no njegovi učinci na dugoročno preživljavanje i neurološke ishode ostaju dvojbeni. Jedna od najkontroverznijih tema je uniformnost kliničkih smjernica koje općenito preporučuju istu dozu adrenalina za sve bolesnike bez obzira na njihovu dob, zdravstveno stanje ili uzrok srčanog zastoja. To dovodi do pitanja je li ovakav pristup uistinu optimalan s obzirom na raznolikost uzroka srčanog zastoja i individualne karakteristike bolesnika. Također, brojni radovi naglašavaju i prijepore koji se odnose na ukupan broj doza iznad kojih ne bi bilo daljnje koristi primjene, optimalno vrijeme primjene, intervale između pojedinih doza adrenalina kao i alternative postojećim protokolima. Raznolikost dobivenih rezultata snažno podupire potrebu provođenja multicentričnih prospektivnih randomiziranih studija temeljem kojih bi se mogle pružiti smjernice koje omogućuju optimizaciju liječenja uz bolje dugoročne funkcionalne ishode za bolesnike sa srčanim zastojem. 
+Ključne riječi KPR, adrenalin, prijepori</t>
+  </si>
+  <si>
+    <t>Sažetak Integracija umjetne inteligencije (AI) u obrazovanje medicinskih sestara predstavlja značajnu promjenu u obrazovanju studenata medicinskih sestara, nudeći nove mogućnosti za obogaćivanje teorijskog učenja i stvaranje skupova praktičnih vještina iz stvarnog života s alatima pokretanim umjetnom inteligencijom kao što su prilagodljive platforme za učenje, softver za pametne mentore i realistične virtualne simulacije. Ove tehnologije pružaju personaliziranu poduku, individualiziranu u smislu specifičnih područja učenika za poboljšanje, povratne informacije u stvarnom vremenu i iskustvenu obuku u simulacijskim okruženjima bez opasnosti i komplikacija tradicionalnih postavki. Korištenjem umjetne inteligencije, obrazovanje medicinskih sestara može premostiti kompetencije i teorijske praznine, pripremajući studente sestrinstva za izazove modernih zdravstvenih okruženja. Funkcija umjetne inteligencije proširuje tradicionalne obrazovne pristupe u smislu pružanja personaliziranog oblika nastave. Prilagodljive platforme za učenje ocjenjuju izvedbu učenika i prilagođavaju isporuku u smislu specifičnih problema učenika i nedostataka u kompetencijama, jačajući ih i prevladavajući specifične slabosti. Simulacije koje pokreće AI omogućuju studentima sestrinstva vježbanje s virtualnim pacijentima u sigurnim okruženjima, vježbanje dijagnostičkog zaključivanja i usavršavanje proceduralnih vještina. Dodatno, umjetna inteligencija može pomoći nastavnicima automatiziranjem administrativnih zadataka i zadataka ocjenjivanja, dajući im više vremena da se usredotoče na nastavne aktivnosti visoke razine. Iako umjetna inteligencija ima golem potencijal, njezina integracija u obrazovanje medicinskih sestara sa sobom nosi svoje brige. Etička razmatranja, kao što su zaštita informacija o pojedinačnim učenicima, pristranost algoritama i osiguranje stalne humanosti u procesima odlučivanja, moraju se rješavati s najvećom pažnjom i obzirnošću. Osim toga, tehnološke prepreke, otpor nastavnog osoblja i financijska ograničenja mogu spriječiti široko usvajanje alata umjetne inteligencije. Unatoč tome, kada se odgovorno provodi, umjetna inteligencija može poboljšati kvalitetu obrazovanja medicinskih sestara i omogućiti stručnjacima za medicinske sestre da se nose sa sve složenijim zdravstvenim okruženjima.
+Ključne riječi umjetna inteligencija, obrazovanje medicinskih sestara, obuka temeljena na simulaciji, personalizirano učenje</t>
+  </si>
+  <si>
+    <t>Sažetak Umjetna inteligencija u trijaži donosi značajan napredak u optimizaciji zdravstvene skrbi. Svojim brzim razvojem postaje sve preciznija pri prepoznavanju obrazaca u medicinskim podacima. Napredak u strojnom učenju omogućuje sustavima da stalno poboljšavaju točnost i brzinu trijaže. Algoritmi umjetne inteligencije na temelju velike količine dobivenih podataka mogu brzo analizirati medicinsku anamnezu i tako prepoznati stanja koja zahtijevaju hitnu intervenciju. Takav sustav omogućuje brzu procjenu te smanjuje mogućnost ljudskih pogrešaka koje mogu nastati zbog umora, stresa te nedostatka znanja i iskustva. Suočavajući se sa sve većim opsegom posla i sve manjom količinom osoblja, korištenje umjetne inteligencije za donošenje odluka u trijaži omogućuje zdravstvenim djelatnicima da bolje upravljaju svojim resursima i odgovornostima. Cilj rada je prikazati razvitak modela umjetne inteligencije u trijaži kroz godine, mogućnosti i načine poboljšanja te njihovu primjenu u različitim medicinskim scenarijima. Poseban naglasak stavljen je na mogućnosti optimizacije postojećih sustava, identificiranje izazova u njihovoj implementaciji te istraživanje načina na koje bi se umjetna inteligencija mogla dodatno integrirati u kliničke procese kako bi se unaprijedila preciznost, brzina i učinkovitost donošenja odluka u trijaži. Rad također obuhvaća pregled etičkih i regulatornih aspekata te budućih smjerova razvoja tehnologije u ovom području. Prednosti umjetne inteligencije u trijaži su brža i preciznija procjena pacijenata pomoću brze obrade velike količine podataka. Standardizirani algoritmi smanjuju mogućnost pogreške i osiguravaju dosljednost u procjeni, a optimizacija resursa omogućava učinkovitije upravljanje zdravstvenim kapacitetima. Umjetna inteligencija pruža i podršku medicinskom osoblju, smanjujući stres i olakšavajući donošenje odluka.
+Ključne riječi umjetna inteligencija, trijaža, hitna medicina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,17 +409,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -438,13 +439,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,24 +472,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,19 +500,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,31 +521,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -862,519 +885,598 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="38" style="11"/>
-    <col min="7" max="7" width="28" style="11" customWidth="1"/>
-    <col min="8" max="9" width="38" style="11"/>
+    <col min="3" max="3" width="43.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38" style="9"/>
+    <col min="6" max="6" width="26.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="9" customWidth="1"/>
     <col min="11" max="11" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11" s="12" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="39" thickBot="1">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" ht="38.25">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="370.5" thickBot="1">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" s="12" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409.6" thickBot="1">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="65.25" customHeight="1">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A8" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" s="12" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="15">
+      <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="1" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A11" t="s">
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="39" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="G11" s="11" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A12" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A13" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="93.75" customHeight="1">
+      <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A14" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="79.5" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A15" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A16" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="54" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="36.75" thickBot="1">
-      <c r="A17" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A18" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="86.25" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A19" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="J19" s="1" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A20" t="s">
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="30">
+      <c r="A20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A21" s="3" t="s">
+      <c r="J20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" s="22" customFormat="1" ht="45">
+      <c r="A21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" t="s">
+      <c r="F21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="30">
+      <c r="A22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="J22" s="5" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Desktop\programer\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4A581-F34E-4517-A104-D0292D241587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="780" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
   <si>
     <t>VRSTA</t>
   </si>
@@ -339,10 +338,6 @@
 Ključne riječi akutni moždani udar, tromboliza, Stroke Code, Angels Initiative project, Platinum Award</t>
   </si>
   <si>
-    <t>Sažetak Moždani udar najčešći je uzrok invalidnosti opće populacije starije iznad 65 godina te drugi po učestalosti sveukupne smrtnosti globalno. Posljedično, zdravstvene i socioekonomske tegobe nastale nakon moždanog udara su od velike težine za samog oboljelog, njegovatelje ali i cijelu zajednicu. Europska organizacija za liječenje moždanog udara (European stroke organisation, ESO) 2018. godine pokrenula je akcijski plan koji se planira provesti do kraja 2030. godine. Glavni ciljevi su redukcija pojavnosti moždanog udara za 10%, liječenje više od 90% pacijenata u tzv. „jedinicama za liječenje moždanog udara“, zatim postavljanja cijelog lanca sustavnog liječenja sa adekvatnom rehabilitacijom te ponovnom osposobljavanje oboljelog u društveni sustav, i završno, šire društveno osvješćivanje i edukacije opće populacije. Liječenje u „jedinicama za liječenje moždanog“ udara predstavlja temelj sustavnog liječenja i njege za pacijente sa moždanim udarom, a zasniva se na postavkom standardiziranih protokola rada sestara i liječnika. U navedenim jedinicama provodi se i tzv. „reperfuzijska terapija“ sa ciljem ponovne uspostave normalnog moždanog protoka, a u koju spada aplikacija intravenske trombolitičke terapije i endovaskularno liječenje koja u posljednjih godina omogućuje promjenu paradigme liječenja i ciljeva liječenje moždanog udara. Angels projekt u sklopu ESO-a u radu je od 2018. godine i temelji se na promicanju standardizacije sa krajnjim ciljem postavljanjem internacionalno verificiranih jedinica za liječenje moždanog a time i promicanju ravnopravne i standardizirane skrbi u pacijenta sa akutnim moždanim udarom. Odjel Neurologije OB „dr.Tomislav Bardek“ Koprivnica sudjeluje u Angels projektu od 2020. godine inicijalno pod mentorstvom doc. Hrvoje Budinčevića, a kasnije uz asistenciju predstavnice Angels projekta za Hrvatsku Marije Shevredinove. Optimizacija liječenja moždanog udara obuhvatila je: uvođenje prenotifikacijskih obrazaca za hitnu medicinu, optimizaciju rada u hitnom odjelu s algoritmima i edukacijom osoblja te protokolizaciju liječenja na Odjelu neurologije s ciljem što brže aplikacije reperfuzijske terapije, ali i postavljanjem standarda za postakutno liječenje i daljnju dijagnostiku i njegu. Odjel neurologije od svojeg sudjelovanja u projektu ostvario je signifikantna poboljšanja u radu te zadobio platinastu nagradu za rezultate u tzv. „RES-Q“ registru. Liječenje moždanog udara unazad posljednjih nekoliko godina u bitnim je promjena, a temelji se na postavku interdisciplinarne i standardizirane suradnje liječnika i medicinskih sestara, a sve u svrhu poboljšanja kvalitete života oboljelih. 
-Ključne riječi Moždani udar; Jedinice liječenja moždanog udara; Reperfuzijska terapija; Tromboliza; Trombektomija</t>
-  </si>
-  <si>
     <t>Sažetak Moždani udar je hitno medicinsko stanje koje zahtijeva pravovremeno prepoznavanje i brzo djelovanje kako bi se osigurao optimalan ishod za pacijenta. U medicinskoj prijavno-dojavnoj jedinici (MPDJ), dispečeri provode trijažu prema Hrvatskom indeksu prijema hitnog medicinskog poziva na temelju razgovora s pozivateljem, što predstavlja izazov zbog varijabilnosti simptoma, načina na koji pozivatelji opisuju stanje pacijenta te tumačenja istih. Ovo istraživanje analizira odabir trijažnih kartica i kriterija povezanih s pozivima koji su na kraju rezultirali radnom dijagnozom moždanog udara prema MKB klasifikaciji (G45-G45.9, I60-I69.9). Retrospektivna analiza obuhvatila je pozive zaprimljene tijekom 2023. godine, s posebnim fokusom na kriterije trijaže A.18.01 – A.18.07 i A.25.01 – A.25.09, simptome prijavljene tijekom razgovora s pozivateljem i njihov utjecaj na odabir trijažnih kartica. Uz to, istraživanje obuhvaća analizu podataka po spolu i dobnim skupinama. Cilj je bio utvrditi obrasce odabira kartica i kriterija te identificirati ključne simptome koji mogu dispečerima olakšati razlikovanje moždanog udara od drugih hitnih stanja. Rezultati analize ukazali su na kartice najčešće korištene za pacijente kojima je kasnije postavljena radna dijagnoza moždanog udara te na simptome koji su bili zanemareni ili pogrešno interpretirani. Na temelju tih rezultata naglašava se potreba za dodatnom edukacijom dispečera o varijabilnostima simptomatologije moždanog udara te različitostima u načinu prezentacije simptoma. Istodobno, rezultati ukazuju i na nužnost podizanja svijesti među populacijom o prepoznavanju ranih znakova moždanog udara te važnosti jasnoće u opisivanju simptoma tijekom hitnih poziva. Zaključci ovog istraživanja mogu poslužiti kao temelj za unapređenje edukacije i prevencije s ciljem pravovremenog prepoznavanja i zbrinjavanja moždanog udara.
 Ključne riječi moždani udar, trijaža, medicinska prijavno-dojavna jedinica, edukacija, populacija</t>
   </si>
@@ -375,12 +370,16 @@
   <si>
     <t>Sažetak Umjetna inteligencija u trijaži donosi značajan napredak u optimizaciji zdravstvene skrbi. Svojim brzim razvojem postaje sve preciznija pri prepoznavanju obrazaca u medicinskim podacima. Napredak u strojnom učenju omogućuje sustavima da stalno poboljšavaju točnost i brzinu trijaže. Algoritmi umjetne inteligencije na temelju velike količine dobivenih podataka mogu brzo analizirati medicinsku anamnezu i tako prepoznati stanja koja zahtijevaju hitnu intervenciju. Takav sustav omogućuje brzu procjenu te smanjuje mogućnost ljudskih pogrešaka koje mogu nastati zbog umora, stresa te nedostatka znanja i iskustva. Suočavajući se sa sve većim opsegom posla i sve manjom količinom osoblja, korištenje umjetne inteligencije za donošenje odluka u trijaži omogućuje zdravstvenim djelatnicima da bolje upravljaju svojim resursima i odgovornostima. Cilj rada je prikazati razvitak modela umjetne inteligencije u trijaži kroz godine, mogućnosti i načine poboljšanja te njihovu primjenu u različitim medicinskim scenarijima. Poseban naglasak stavljen je na mogućnosti optimizacije postojećih sustava, identificiranje izazova u njihovoj implementaciji te istraživanje načina na koje bi se umjetna inteligencija mogla dodatno integrirati u kliničke procese kako bi se unaprijedila preciznost, brzina i učinkovitost donošenja odluka u trijaži. Rad također obuhvaća pregled etičkih i regulatornih aspekata te budućih smjerova razvoja tehnologije u ovom području. Prednosti umjetne inteligencije u trijaži su brža i preciznija procjena pacijenata pomoću brze obrade velike količine podataka. Standardizirani algoritmi smanjuju mogućnost pogreške i osiguravaju dosljednost u procjeni, a optimizacija resursa omogućava učinkovitije upravljanje zdravstvenim kapacitetima. Umjetna inteligencija pruža i podršku medicinskom osoblju, smanjujući stres i olakšavajući donošenje odluka.
 Ključne riječi umjetna inteligencija, trijaža, hitna medicina</t>
+  </si>
+  <si>
+    <t>Sažetak Moždani udar najčešći je uzrok invalidnosti opće populacije starije iznad 65 godina te drugi po učestalosti sveukupne smrtnosti globalno. Posljedično, zdravstvene i socioekonomske tegobe nastale nakon moždanog udara su od velike težine za samog oboljelog, njegovatelje ali i cijelu zajednicu. Europska organizacija za liječenje moždanog udara (European stroke organisation, ESO) 2018. godine pokrenula je akcijski plan koji se planira provesti do kraja 2030. godine. Glavni ciljevi su redukcija pojavnosti moždanog udara za 10%, liječenje više od 90% pacijenata u tzv. „jedinicama za liječenje moždanog udara“, zatim postavljanja cijelog lanca sustavnog liječenja sa adekvatnom rehabilitacijom te ponovnom osposobljavanje oboljelog u društveni sustav, i završno, šire društveno osvješćivanje i edukacije opće populacije. Liječenje u „jedinicama za liječenje moždanog“ udara predstavlja temelj sustavnog liječenja i njege za pacijente sa moždanim udarom, a zasniva se na postavkom standardiziranih protokola rada sestara i liječnika. U navedenim jedinicama provodi se i tzv. „reperfuzijska terapija“ sa ciljem ponovne uspostave normalnog moždanog protoka, a u koju spada aplikacija intravenske trombolitičke terapije i endovaskularno liječenje koja u posljednjih godina omogućuje promjenu paradigme liječenja i ciljeva liječenje moždanog udara. Angels projekt u sklopu ESO-a u radu je od 2018. godine i temelji se na promicanju standardizacije sa krajnjim ciljem postavljanjem internacionalno verificiranih jedinica za liječenje moždanog a time i promicanju ravnopravne i standardizirane skrbi u pacijenta sa akutnim moždanim udarom. Odjel Neurologije OB „dr.Tomislav Bardek“ Koprivnica sudjeluje u Angels projektu od 2020. godine inicijalno pod mentorstvom doc. Hrvoje Budinčevića, a kasnije uz asistenciju predstavnice Angels projekta za Hrvatsku Marije Shevredinove. Optimizacija liječenja moždanog udara obuhvatila je: uvođenje prenotifikacijskih obrazaca za hitnu medicinu, optimizaciju rada u hitnom odjelu s algoritmima i edukacijom osoblja te protokolizaciju liječenja na Odjelu neurologije s ciljem što brže aplikacije reperfuzijske terapije, ali i postavljanjem standarda za postakutno liječenje i daljnju dijagnostiku i njegu. Odjel neurologije od svojeg sudjelovanja u projektu ostvario je signifikantna poboljšanja u radu te zadobio platinastu nagradu za rezultate u tzv. „RES-Q“ registru. Liječenje moždanog udara unazad posljednjih nekoliko godina u bitnim je promjena, a temelji se na postavku interdisciplinarne i standardizirane suradnje liječnika i medicinskih sestara, a sve u svrhu poboljšanja kvalitete života oboljelih. 
+Ključne riječi Moždani udar, Jedinice liječenja moždanog udara, Reperfuzijska terapija, Tromboliza, Trombektomija</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -882,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="K13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
@@ -903,7 +902,7 @@
     <col min="11" max="11" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -938,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -961,7 +960,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="64.5" customHeight="1">
+    <row r="3" spans="1:12" s="12" customFormat="1" ht="64.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -986,7 +985,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="38.25">
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="38.25">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1010,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="52.5" customHeight="1">
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="52.5" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -1037,8 +1036,11 @@
       <c r="K5" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="65.25" customHeight="1">
+      <c r="L5" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="65.25" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="72.75" customHeight="1" thickBot="1">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
@@ -1089,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="30.75" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="30.75" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1117,7 +1119,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="47.25" customHeight="1">
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="47.25" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
@@ -1141,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="18" customFormat="1" ht="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="15">
       <c r="A10" s="18" t="s">
         <v>8</v>
       </c>
@@ -1167,7 +1169,7 @@
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:11" s="18" customFormat="1" ht="39" customHeight="1">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="39" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1192,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="82.5" customHeight="1">
+    <row r="12" spans="1:12" s="12" customFormat="1" ht="82.5" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
@@ -1214,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="93.75" customHeight="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="12" customFormat="1" ht="93.75" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>5</v>
       </c>
@@ -1241,10 +1243,10 @@
         <v>9</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="79.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="12" customFormat="1" ht="79.5" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>5</v>
       </c>
@@ -1268,10 +1270,10 @@
         <v>9</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="36" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="12" customFormat="1" ht="36" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>5</v>
       </c>
@@ -1295,10 +1297,10 @@
         <v>9</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="54" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="12" customFormat="1" ht="54" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="71.25" customHeight="1">
@@ -1349,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="86.25" customHeight="1">
@@ -1376,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="18" customFormat="1" ht="23.25" customHeight="1">
